--- a/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
+++ b/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="E2" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7230769230769231</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.7384615384615385</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.7384615384615385</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7538461538461538</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7053846153846153</v>
+        <v>0.6874358974358974</v>
       </c>
     </row>
     <row r="3">
@@ -602,28 +602,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.4953846153846154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>amazon.titan-embed-text-v2:0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -633,26 +633,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': False}}</t>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.8153846153846154</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9076923076923077</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.9538461538461539</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.9846153846153847</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9846153846153847</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9723076923076923</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -798,7 +798,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>amazon.titan-embed-text-v2:0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -808,26 +808,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': False}}</t>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
   </sheetData>

--- a/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
+++ b/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,26 +493,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7846153846153846</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6874358974358974</v>
+        <v>0.5800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -528,26 +528,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.905128205128205</v>
+        <v>0.5312820512820513</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9641025641025641</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.7076923076923077</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.7384615384615385</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4953846153846154</v>
+        <v>0.467948717948718</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8153846153846154</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9076923076923077</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="F6" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9538461538461539</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.9538461538461539</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9692307692307692</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.88</v>
+        <v>0.8646153846153847</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,19 +675,19 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7564102564102563</v>
+        <v>0.7253846153846154</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.9282051282051281</v>
       </c>
     </row>
     <row r="9">
@@ -733,31 +733,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9128205128205129</v>
       </c>
     </row>
     <row r="10">
@@ -768,31 +768,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.3651282051282051</v>
       </c>
     </row>
     <row r="11">
@@ -803,31 +803,381 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="F11" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8897435897435897</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="H11" t="n">
+      <c r="G13" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="I11" t="n">
+      <c r="H13" t="n">
         <v>0.9230769230769231</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7948717948717949</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nvidia/NV-Embed-v2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>amazon.titan-embed-text-v2:0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7564102564102563</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nvidia/NV-Embed-v2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>amazon.titan-embed-text-v2:0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
+++ b/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,34 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MRR</t>
+          <t>Accuracy@6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy@7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy@8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy@9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy@10</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>nvidia/NV-Embed-v2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,32 +513,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5692307692307692</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G2" t="n">
-        <v>0.676923076923077</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5800000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+          <t>dunzhang/stella_en_1.5B_v5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,32 +560,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.676923076923077</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5312820512820513</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nvidia/NV-Embed-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -563,32 +607,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9641025641025641</v>
+        <v>0.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8153846153846154</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8307692307692308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -598,26 +654,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.467948717948718</v>
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -633,166 +701,226 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8646153846153847</v>
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9846153846153847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>nvidia/NV-Embed-v2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HuggingFace QA Dataset</t>
+          <t>PubMed filtered Dataset</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.7820512820512822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7846153846153846</v>
+        <v>0.7858974358974359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7253846153846154</v>
+        <v>0.7628205128205129</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7554945054945056</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7747252747252749</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.793956043956044</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.804945054945055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+          <t>dunzhang/stella_en_1.5B_v5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HuggingFace QA Dataset</t>
+          <t>PubMed filtered Dataset</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8769230769230769</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.7435897435897437</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.7397435897435898</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9282051282051281</v>
+        <v>0.7371794871794872</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7600732600732601</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7600732600732601</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8031135531135531</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8031135531135531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nvidia/NV-Embed-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HuggingFace QA Dataset</t>
+          <t>PubMed filtered Dataset</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.5705128205128205</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.6743589743589744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9128205128205129</v>
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6465201465201466</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6959706959706959</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7087912087912088</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7087912087912088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HuggingFace QA Dataset</t>
+          <t>PubMed filtered Dataset</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5846153846153846</v>
+        <v>0.6987179487179487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7397435897435898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3651282051282051</v>
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7747252747252749</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7875457875457876</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7875457875457876</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7875457875457876</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +931,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HuggingFace QA Dataset</t>
+          <t>PubMed filtered Dataset</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,372 +940,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8461538461538461</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9076923076923077</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6923076923076922</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.691025641025641</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8897435897435897</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:'}</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.7948717948717949</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nvidia/NV-Embed-v2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>amazon.titan-embed-text-v2:0</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>{'name': 'amazon.titan-embed-text-v2:0', 'instruction': 'Instruct: Represent this passage for retrieval in response to relevant questions.\nQuery:', 'query_instruction': 'Instruct: Given a query, find the most relevant passages that can provide the answer.\nPassage:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.7564102564102563</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>nvidia/NV-Embed-v2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 5, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 20, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>amazon.titan-embed-text-v2:0</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PubMed filtered Dataset</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
+        <v>0.6730769230769231</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6657509157509158</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.684981684981685</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7042124542124543</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.728021978021978</v>
       </c>
     </row>
   </sheetData>

--- a/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
+++ b/src/my_rag/evaluations/results/retriever_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nvidia/NV-Embed-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,44 +513,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.8307692307692308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,44 +560,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.8153846153846154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>nvidia/NV-Embed-v2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,44 +607,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 2, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5692307692307692</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8153846153846154</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8307692307692308</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8307692307692308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+          <t>dunzhang/stella_en_1.5B_v5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -654,26 +654,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'query_instruction': 'Instruct: Given a web search query, retrieve relevant passages that answer the query.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.9538461538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9692307692307692</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -691,7 +691,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amazon.titan-embed-text-v2:0</t>
+          <t>dunzhang/stella_en_1.5B_v5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -701,272 +701,836 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'query_instruction': 'Instruct: Given a web search query, retrieve relevant passages that answer the query.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="E6" t="n">
         <v>0.9076923076923077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9384615384615385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nvidia/NV-Embed-v2</t>
+          <t>amazon.titan-embed-text-v2:0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7820512820512822</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7858974358974359</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7628205128205129</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7554945054945056</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7747252747252749</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.793956043956044</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.804945054945055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dunzhang/stella_en_1.5B_v5</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 3, 'instruction': 'Instruct: Represent this passage to effectively represent its content for retrieval in response to relevant questions. Focus on capturing key details and context.\nPassage:', 'query_instruction': 'Instruct: Represent this query to retrieve the most relevant passages capable of answering it. Ensure clarity and specificity of the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7435897435897437</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7397435897435898</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7371794871794872</v>
+        <v>0.8</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7600732600732601</v>
+        <v>0.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7600732600732601</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8031135531135531</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8031135531135531</v>
+        <v>0.8307692307692308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5705128205128205</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6743589743589744</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6465201465201466</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6959706959706959</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7087912087912088</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7087912087912088</v>
+        <v>0.9846153846153847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+          <t>nvidia/NV-Embed-v2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PubMed filtered Dataset</t>
+          <t>HuggingFace QA Dataset</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 2, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="E10" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6987179487179487</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7397435897435898</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7747252747252749</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7875457875457876</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7875457875457876</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7875457875457876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HuggingFace QA Dataset</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'model_kwargs': {'trust_remote_code': True}}</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>amazon.titan-embed-text-v2:0</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HuggingFace QA Dataset</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9076923076923077</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9692307692307692</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>PubMed filtered Dataset</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:'}</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5307692307692308</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5705128205128205</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5888278388278388</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5888278388278388</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6016483516483516</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6016483516483516</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:'}</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7435897435897435</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6987179487179487</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7012820512820512</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7051282051282052</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7188644688644689</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7188644688644689</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7316849816849816</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7316849816849816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nvidia/NV-Embed-v2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 2, 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7628205128205129</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7705128205128206</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7628205128205129</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.793956043956044</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.804945054945055</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.804945054945055</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.804945054945055</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'query_instruction': 'Instruct: Given a web search query, retrieve relevant passages that answer the query.\nQuery:', 'model_kwargs': {'trust_remote_code': True}}</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7179487179487178</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7051282051282052</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7205128205128205</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7243589743589745</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7490842490842492</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7600732600732601</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7921245421245421</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'query_instruction': 'Instruct: Given a web search query, retrieve relevant passages that answer the query.\nQuery:', 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True}}</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.641025641025641</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6602564102564101</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6756410256410257</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6987179487179488</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7408424908424909</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7408424908424909</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7408424908424909</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7838827838827839</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>amazon.titan-embed-text-v2:0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'name': 'amazon.titan-embed-text-v2:0', 'query_instruction': 'Instruct: Given a question, retrieve passages that answer the question.\nQuery:', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6692307692307692</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7042124542124543</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7152014652014652</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7344322344322344</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7344322344322344</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'name': 'sentence-transformers/all-MiniLM-L6-v2', 'batch_size': 100}</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.467948717948718</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5717948717948718</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5439560439560439</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5741758241758241</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.6062271062271062</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6062271062271062</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'name': 'mixedbread-ai/mxbai-embed-large-v1', 'batch_size': 100}</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6987179487179487</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7397435897435898</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7747252747252749</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7875457875457876</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7875457875457876</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7875457875457876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nvidia/NV-Embed-v2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'name': 'nvidia/NV-Embed-v2', 'batch_size': 2, 'model_kwargs': {'trust_remote_code': True, 'load_in_8bit': True, 'max_length': 32768}}</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7435897435897435</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7243589743589745</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7205128205128205</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7371794871794872</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7408424908424909</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7600732600732601</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7600732600732601</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7921245421245421</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dunzhang/stella_en_1.5B_v5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'name': 'dunzhang/stella_en_1.5B_v5', 'batch_size': 2, 'model_kwargs': {'trust_remote_code': True}}</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.685897435897436</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7051282051282052</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7243589743589745</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7683150183150184</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8113553113553114</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8113553113553114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>amazon.titan-embed-text-v2:0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PubMed filtered Dataset</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>{'name': 'amazon.titan-embed-text-v2:0', 'model_kwargs': {'aws': True, 'aws_creds_file': '/home/ubuntu/Multi-Agent-LLM-System-with-LangGraph-RAG-and-LangChain/config/config.ini', 'aws_config_name': 'BedRock_LLM_API'}}</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F23" t="n">
         <v>0.6923076923076922</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G23" t="n">
         <v>0.6730769230769231</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H23" t="n">
         <v>0.691025641025641</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I23" t="n">
         <v>0.6730769230769231</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J23" t="n">
         <v>0.6657509157509158</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K23" t="n">
         <v>0.684981684981685</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L23" t="n">
         <v>0.7042124542124543</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M23" t="n">
         <v>0.728021978021978</v>
       </c>
     </row>
